--- a/Documentation/EcoVision_FP.xlsx
+++ b/Documentation/EcoVision_FP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37316d906a56fe9e/Desktop/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{02AA548B-FA64-4178-B6B7-DDA2F925C700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2B99AEF-97D7-40B2-BC13-025E33D174E0}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{FE34278B-43BC-422B-82B4-CC3775172B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{049C2C91-6447-4400-85B8-39AB6668F155}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{459E461F-0BA6-47B4-BAF2-DBDEC70C4A3D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Function</t>
   </si>
@@ -56,9 +56,6 @@
     <t>FP</t>
   </si>
   <si>
-    <t>PROFILE</t>
-  </si>
-  <si>
     <t>SIGN-UP</t>
   </si>
   <si>
@@ -74,97 +71,19 @@
     <t>LOW</t>
   </si>
   <si>
-    <t>MEDIUM</t>
-  </si>
-  <si>
-    <t>NEWS</t>
-  </si>
-  <si>
-    <t>FILTER</t>
-  </si>
-  <si>
-    <t>ADD</t>
-  </si>
-  <si>
-    <t>REMOVE</t>
-  </si>
-  <si>
     <t>EO</t>
   </si>
   <si>
-    <t>TICKETS</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>MY COLLECTION link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MY COLLECTION  </t>
-  </si>
-  <si>
-    <t>FRIENDSHIP</t>
-  </si>
-  <si>
-    <t>FRIENDS link</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIENDS   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">REQUEST    </t>
-  </si>
-  <si>
-    <t>REQUESTS' link</t>
-  </si>
-  <si>
-    <t>ACCEPT</t>
-  </si>
-  <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>SEND REQUEST</t>
-  </si>
-  <si>
-    <t>USER'S NEWS</t>
-  </si>
-  <si>
-    <t>USER'S TICKETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLLECT TICKETS </t>
-  </si>
-  <si>
     <t>TOT</t>
   </si>
   <si>
     <t>Module/Label</t>
   </si>
   <si>
-    <t>SENDED REQUESTS</t>
-  </si>
-  <si>
     <t>USER</t>
   </si>
   <si>
-    <t>USER/FRIENDSHIP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IMAGE </t>
-  </si>
-  <si>
-    <t>IMAGE</t>
-  </si>
-  <si>
     <t>FUNCTION POINTS-TRANSACTIONS COMPLEXITY AND IDENTIFICATION</t>
-  </si>
-  <si>
-    <t>EDIT&amp;DELETE</t>
-  </si>
-  <si>
-    <t>HIGH</t>
   </si>
   <si>
     <t>Index</t>
@@ -243,7 +162,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,6 +180,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -287,10 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -306,10 +234,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB32407-3019-4D7B-8E2D-34A29B57EA21}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="126" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="126" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,15 +547,15 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" t="s">
@@ -653,7 +577,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -661,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,7 +600,7 @@
         <v>5</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -687,13 +611,13 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" t="s">
-        <v>9</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -702,7 +626,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>3</v>
@@ -713,13 +637,13 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -728,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>3</v>
@@ -739,13 +663,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -754,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L7">
         <v>4</v>
@@ -765,13 +689,13 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -780,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -791,13 +715,13 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -806,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -817,13 +741,13 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -832,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -843,16 +767,25 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11">
         <v>1</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -860,16 +793,25 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12">
         <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -877,16 +819,25 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>1</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -894,16 +845,25 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14">
         <v>1</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -911,16 +871,25 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I15">
         <v>1</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -928,44 +897,62 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -974,21 +961,21 @@
         <v>4</v>
       </c>
       <c r="K18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L18">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -997,21 +984,21 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L19">
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1020,21 +1007,21 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1043,609 +1030,19 @@
         <v>5</v>
       </c>
       <c r="K21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L21">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>15</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>11</v>
-      </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>16</v>
-      </c>
-      <c r="D30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30" t="s">
-        <v>11</v>
-      </c>
-      <c r="L30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>17</v>
-      </c>
-      <c r="D31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>9</v>
-      </c>
-      <c r="I31">
-        <v>2</v>
-      </c>
-      <c r="J31">
-        <v>8</v>
-      </c>
-      <c r="K31" t="s">
-        <v>12</v>
-      </c>
-      <c r="L31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>3</v>
-      </c>
-      <c r="K33" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <v>20</v>
-      </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>1</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>11</v>
-      </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <v>23</v>
-      </c>
-      <c r="D37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C38">
-        <v>24</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="H38" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C39">
-        <v>25</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>3</v>
-      </c>
-      <c r="K39" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C40">
-        <v>26</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
-      </c>
-      <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C41">
-        <v>27</v>
-      </c>
-      <c r="D41" t="s">
-        <v>35</v>
-      </c>
-      <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C42">
-        <v>28</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="F42" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42" t="s">
-        <v>11</v>
-      </c>
-      <c r="L42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C43">
-        <v>29</v>
-      </c>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>11</v>
-      </c>
-      <c r="L43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C44">
-        <v>30</v>
-      </c>
-      <c r="D44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C45">
-        <v>31</v>
-      </c>
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" t="s">
-        <v>28</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="K45" t="s">
-        <v>11</v>
-      </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>37</v>
-      </c>
-      <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C47">
-        <v>33</v>
-      </c>
-      <c r="D47" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" t="s">
-        <v>38</v>
-      </c>
-      <c r="H47" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="K47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>34</v>
-      </c>
-      <c r="D48" t="s">
-        <v>30</v>
-      </c>
-      <c r="F48" t="s">
-        <v>38</v>
-      </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48">
-        <v>1</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>11</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C49">
-        <v>35</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>11</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C50">
-        <v>36</v>
-      </c>
-      <c r="D50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F50" t="s">
-        <v>39</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>11</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C51">
-        <v>37</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s">
-        <v>42</v>
-      </c>
-      <c r="L51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="M52">
-        <f>SUM(L4:L51)</f>
-        <v>121</v>
-      </c>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M52" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
